--- a/inst/tutorials/toad_spreadsheet/toad_hypothesis_test_XLSX.xlsx
+++ b/inst/tutorials/toad_spreadsheet/toad_hypothesis_test_XLSX.xlsx
@@ -5,24 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisanjie\Documents\1_R\git\git-courses_2018_2019\biostatistics_2018\BOOKS_in_prep\BOOK_Companion_to_Analysis_of_Bio_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisanjie\Documents\1_R\git\git-teaching\teaching_2018_2019\2018_fall\biostats_fall_2018\4_biostats_bks_pkg\ABD\abdcompanion_pkg\inst\tutorials\toad_spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6FEC84B3-4319-460C-88EB-7AD0B57DDF67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBB8067B-527A-41DE-99AD-B8FC84342F89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" tabRatio="695" activeTab="25" xr2:uid="{5C9993AB-F85F-4D1A-B5FD-039F1E4E25E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="1." sheetId="3" r:id="rId1"/>
-    <sheet name="2." sheetId="5" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId1"/>
+    <sheet name="2" sheetId="5" r:id="rId2"/>
     <sheet name="3" sheetId="10" r:id="rId3"/>
     <sheet name="4" sheetId="6" r:id="rId4"/>
     <sheet name="5" sheetId="7" r:id="rId5"/>
     <sheet name="6" sheetId="8" r:id="rId6"/>
-    <sheet name="7." sheetId="9" r:id="rId7"/>
-    <sheet name="8." sheetId="11" r:id="rId8"/>
-    <sheet name="9." sheetId="12" r:id="rId9"/>
-    <sheet name="10." sheetId="13" r:id="rId10"/>
+    <sheet name="7" sheetId="9" r:id="rId7"/>
+    <sheet name="8" sheetId="11" r:id="rId8"/>
+    <sheet name="9" sheetId="12" r:id="rId9"/>
+    <sheet name="10" sheetId="13" r:id="rId10"/>
     <sheet name="11" sheetId="14" r:id="rId11"/>
     <sheet name="12" sheetId="24" r:id="rId12"/>
     <sheet name="13" sheetId="15" r:id="rId13"/>
@@ -31,12 +31,12 @@
     <sheet name="16" sheetId="18" r:id="rId16"/>
     <sheet name="17" sheetId="19" r:id="rId17"/>
     <sheet name="18" sheetId="20" r:id="rId18"/>
-    <sheet name="19." sheetId="21" r:id="rId19"/>
-    <sheet name="20." sheetId="22" r:id="rId20"/>
-    <sheet name="21." sheetId="23" r:id="rId21"/>
-    <sheet name="22." sheetId="25" r:id="rId22"/>
-    <sheet name="23." sheetId="26" r:id="rId23"/>
-    <sheet name="24." sheetId="29" r:id="rId24"/>
+    <sheet name="19" sheetId="21" r:id="rId19"/>
+    <sheet name="20" sheetId="22" r:id="rId20"/>
+    <sheet name="21" sheetId="23" r:id="rId21"/>
+    <sheet name="22" sheetId="25" r:id="rId22"/>
+    <sheet name="23" sheetId="26" r:id="rId23"/>
+    <sheet name="24" sheetId="29" r:id="rId24"/>
     <sheet name="25" sheetId="28" r:id="rId25"/>
     <sheet name="26" sheetId="1" r:id="rId26"/>
   </sheets>
@@ -213,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,9 +353,6 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +386,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,55 +429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20918</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>79974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C9A154-044E-4410-A37C-87BF1B81F4E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9159240" y="1074420"/>
-          <a:ext cx="295238" cy="285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,7 +797,294 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="14.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11/B11</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="22">
+        <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
+        <v>0.18547058105468744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <f>C16/B16</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F16" s="10">
+        <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
+        <v>1.1672973632812505E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A226950-5B05-4704-808B-3C476DB50375}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +1120,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -975,11 +1245,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -1045,16 +1315,16 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>18</v>
       </c>
@@ -1063,7 +1333,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -1072,7 +1342,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>18</v>
       </c>
@@ -1081,7 +1351,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1089,19 +1359,22 @@
         <v>18</v>
       </c>
       <c r="F20" s="8"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A226950-5B05-4704-808B-3C476DB50375}">
-  <sheetPr codeName="Sheet11"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35033A-FA68-4D07-8DAC-9C934728D54A}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1410,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1213,7 +1486,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>18</v>
@@ -1225,7 +1498,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>18</v>
@@ -1235,7 +1508,10 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="17">
+        <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
+        <v>0.12139892578124999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -1247,7 +1523,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="17">
+        <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
+        <v>0.16692352294921872</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1262,16 +1541,24 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="18">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="14">
+        <f>SUM(F10:F12)</f>
+        <v>0.51931762695312489</v>
+      </c>
+      <c r="H11" s="14">
+        <f>SUM(F9:F13)</f>
+        <v>0.76211547851562489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>18</v>
@@ -1281,9 +1568,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="19">
+        <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
+        <v>0.16692352294921872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>18</v>
@@ -1293,7 +1583,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="19">
+        <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
+        <v>0.12139892578124999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -1332,321 +1625,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
-        <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
-        <v>1.1672973632812505E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8">
-        <v>18</v>
-      </c>
-      <c r="C18" s="8">
-        <v>16</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8">
-        <v>17</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8">
-        <v>18</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35033A-FA68-4D07-8DAC-9C934728D54A}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="18">
-        <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
-        <v>0.12139892578124999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="18">
-        <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
-        <v>0.16692352294921872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <f>C11/B11</f>
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="19">
-        <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
-        <v>0.18547058105468744</v>
-      </c>
-      <c r="G11" s="15">
-        <f>SUM(F10:F12)</f>
-        <v>0.51931762695312489</v>
-      </c>
-      <c r="H11" s="15">
-        <f>SUM(F9:F13)</f>
-        <v>0.76211547851562489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="20">
-        <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
-        <v>0.16692352294921872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="20">
-        <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
-        <v>0.12139892578124999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12">
-        <f>C16/B16</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -1737,7 +1720,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1835,7 +1818,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -1850,7 +1833,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -1868,11 +1851,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -1887,7 +1870,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -1902,7 +1885,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -1944,11 +1927,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -1981,23 +1964,23 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="21">
-        <v>18</v>
-      </c>
-      <c r="C20" s="21">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="B20" s="20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="20">
         <v>0</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="H20" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +1996,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,7 +2033,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2148,7 +2131,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2163,7 +2146,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2181,11 +2164,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -2200,7 +2183,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2215,7 +2198,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2257,11 +2240,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -2310,7 +2293,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="25">
         <f t="shared" ref="F20" si="0">_xlfn.BINOM.DIST(C20,B20,0.5,FALSE)</f>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -2329,7 +2312,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2366,7 +2349,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2464,7 +2447,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2479,7 +2462,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2497,11 +2480,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -2516,7 +2499,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2531,7 +2514,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2573,11 +2556,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -2610,14 +2593,14 @@
       <c r="C19" s="8">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="26">
         <f>C19/B19</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="27">
         <f>_xlfn.BINOM.DIST(C19,B19,0.5,FALSE)</f>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -2639,7 +2622,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" ref="F20" si="0">_xlfn.BINOM.DIST(C20,B20,0.5,FALSE)</f>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -2658,7 +2641,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2694,7 +2677,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2708,10 +2691,10 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="24">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24">
         <f>C2/D2</f>
         <v>0</v>
       </c>
@@ -2799,7 +2782,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2814,7 +2797,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2832,11 +2815,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -2851,7 +2834,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -2866,7 +2849,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -2908,11 +2891,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -2952,7 +2935,7 @@
         <f>C19/B19</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f t="shared" ref="F19:F20" si="0">_xlfn.BINOM.DIST(C19,B19,0.5,FALSE)</f>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -2974,7 +2957,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -2991,7 +2974,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3010,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3048,7 +3031,7 @@
         <f>C2/D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="25">
         <f t="shared" ref="F2" si="0">_xlfn.BINOM.DIST(C2,B2,0.5,FALSE)</f>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -3135,7 +3118,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -3150,7 +3133,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3168,11 +3151,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -3187,7 +3170,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3202,7 +3185,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -3244,11 +3227,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -3288,7 +3271,7 @@
         <f>C19/B19</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f t="shared" ref="F19:F20" si="1">_xlfn.BINOM.DIST(C19,B19,0.5,FALSE)</f>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -3310,7 +3293,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -3327,7 +3310,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3363,7 +3346,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3384,7 +3367,7 @@
         <f>C2/D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="0">_xlfn.BINOM.DIST(C2,B2,0.5,FALSE)</f>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -3404,7 +3387,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="13">
+      <c r="F3" s="25">
         <f t="shared" si="0"/>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -3485,7 +3468,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -3500,7 +3483,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3518,11 +3501,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -3537,7 +3520,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3552,7 +3535,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -3594,11 +3577,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -3638,7 +3621,7 @@
         <f>C19/B19</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f t="shared" ref="F19:F20" si="1">_xlfn.BINOM.DIST(C19,B19,0.5,FALSE)</f>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -3660,7 +3643,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -3677,7 +3660,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3713,7 +3696,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3734,7 +3717,7 @@
         <f>C2/D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="0">_xlfn.BINOM.DIST(C2,B2,0.5,FALSE)</f>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -3751,7 +3734,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -3790,11 +3773,11 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="26">
         <v>14</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11">
+      <c r="E6" s="26"/>
+      <c r="F6" s="28">
         <f t="shared" ref="F6" si="1">_xlfn.BINOM.DIST(C6,B6,0.5,FALSE)</f>
         <v>1.16729736328125E-2</v>
       </c>
@@ -3833,7 +3816,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>_xlfn.BINOM.DIST(C9,B9,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
@@ -3848,7 +3831,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>_xlfn.BINOM.DIST(C10,B10,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3866,11 +3849,11 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>_xlfn.BINOM.DIST(C11,B11,0.5,FALSE)</f>
         <v>0.18547058105468744</v>
       </c>
@@ -3885,7 +3868,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>_xlfn.BINOM.DIST(C12,B12,0.5,FALSE)</f>
         <v>0.16692352294921872</v>
       </c>
@@ -3900,11 +3883,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>_xlfn.BINOM.DIST(C13,B13,0.5,FALSE)</f>
         <v>0.12139892578124999</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -3917,7 +3900,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -3930,7 +3913,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -3945,15 +3928,15 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
@@ -3963,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
@@ -3991,7 +3974,7 @@
         <f>C19/B19</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f t="shared" ref="F19:F20" si="2">_xlfn.BINOM.DIST(C19,B19,0.5,FALSE)</f>
         <v>6.8664550781249973E-5</v>
       </c>
@@ -4013,7 +3996,7 @@
         <f>C20/B20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="2"/>
         <v>3.8146972656250008E-6</v>
       </c>
@@ -4030,7 +4013,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4067,7 +4050,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4308,7 +4291,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4344,7 +4327,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4530,7 +4513,7 @@
         <f t="shared" si="0"/>
         <v>5.8364868164062565E-4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="29">
         <f>SUM(F16:F20:F20)</f>
         <v>1.5441894531250002E-2</v>
       </c>
@@ -4612,7 +4595,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4847,7 +4830,287 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="14.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="30">
+        <f>_xlfn.BINOM.DIST(C2,B2,0.5,FALSE)</f>
+        <v>3.8146972656250008E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F20" si="0">_xlfn.BINOM.DIST(C3,B3,0.5,FALSE)</f>
+        <v>6.8664550781249973E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>5.8364868164062565E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>3.112792968749997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.16729736328125E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18547058105468744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1672973632812505E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1127929687499965E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8364868164062565E-4</v>
+      </c>
+      <c r="G18">
+        <f>SUM(F16:F20)</f>
+        <v>1.5441894531250002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8664550781249973E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8146972656250008E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5C5839-5FB1-4279-8880-903DC9443BD4}">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4883,7 +5146,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4934,6 +5197,10 @@
         <f t="shared" si="0"/>
         <v>5.8364868164062565E-4</v>
       </c>
+      <c r="G4" s="29">
+        <f>SUM(F2:F6)</f>
+        <v>1.5441894531249997E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -5121,13 +5388,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5C5839-5FB1-4279-8880-903DC9443BD4}">
-  <sheetPr codeName="Sheet23"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1A993-6C54-4C66-8AF4-A9C4A509D9F3}">
+  <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="F12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5163,7 +5430,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5214,10 +5481,6 @@
         <f t="shared" si="0"/>
         <v>5.8364868164062565E-4</v>
       </c>
-      <c r="G4">
-        <f>SUM(F2:F6)</f>
-        <v>1.5441894531249997E-2</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -5254,29 +5517,57 @@
       <c r="B7" s="1">
         <v>18</v>
       </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>3.2684326171875021E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>18</v>
       </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0816040039062472E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>18</v>
       </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.12139892578124999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>18</v>
       </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.16692352294921872</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -5299,362 +5590,54 @@
       <c r="B12" s="1">
         <v>18</v>
       </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="31">
+        <f t="shared" si="0"/>
+        <v>0.16692352294921872</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>18</v>
       </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.12139892578124999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>18</v>
       </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
+      <c r="F14" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0816040039062472E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>18</v>
       </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1672973632812505E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1127929687499965E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8364868164062565E-4</v>
-      </c>
-      <c r="G18">
-        <f>SUM(F16:F20)</f>
-        <v>1.5441894531250002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8664550781249973E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8146972656250008E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1A993-6C54-4C66-8AF4-A9C4A509D9F3}">
-  <sheetPr codeName="Sheet29"/>
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4">
-        <f>_xlfn.BINOM.DIST(C2,B2,0.5,FALSE)</f>
-        <v>3.8146972656250008E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F20" si="0">_xlfn.BINOM.DIST(C3,B3,0.5,FALSE)</f>
-        <v>6.8664550781249973E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8364868164062565E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>3.112792968749997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.16729736328125E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2684326171875021E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0816040039062472E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12139892578124999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16692352294921872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18547058105468744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16692352294921872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12139892578124999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0816040039062472E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="1">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
         <v>3.2684326171875021E-2</v>
       </c>
@@ -5786,7 +5769,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6090,7 +6073,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6126,7 +6109,7 @@
       <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6285,7 +6268,7 @@
         <f t="shared" si="0"/>
         <v>0.18547058105468744</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="29">
         <f>SUM(G2:G20)</f>
         <v>3.08837890625E-2</v>
       </c>
@@ -6434,7 +6417,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6596,7 +6579,7 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="22">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
@@ -6616,6 +6599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6625,7 +6609,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6783,20 +6767,20 @@
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="17">
-        <v>18</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="16">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16">
         <v>14</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6986,11 +6970,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -7015,7 +6999,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7215,11 +7198,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -7253,7 +7236,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I10"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7471,11 +7454,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -7676,16 +7659,16 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21">
-        <v>18</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20">
         <v>9</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -7748,11 +7731,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
@@ -7804,7 +7787,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7959,10 +7942,10 @@
       <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="24">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="22">
         <f>C11/B11</f>
         <v>0.5</v>
       </c>
@@ -8029,11 +8012,11 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>C16/B16</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>_xlfn.BINOM.DIST(C16,B16,0.5,FALSE)</f>
         <v>1.1672973632812505E-2</v>
       </c>
